--- a/tarea01 - algoritomo A/metodos A.xlsx
+++ b/tarea01 - algoritomo A/metodos A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saids\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saids\Desktop\InteligenciaArtificalClass-Repo\tarea01 - algoritomo A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EEFAAF-FAE1-48CF-8FF9-1FE319FC79F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A7C27-C032-4A6B-8918-76787D65B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E48C7606-B267-4B67-A036-034A0E98C5EC}"/>
   </bookViews>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -262,7 +262,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B60A026-C6D3-4829-9E1E-5AEC7B07DCED}">
-  <dimension ref="B2:S27"/>
+  <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="R27" sqref="R27:S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1687,7 +1686,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>20</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="24">
         <v>29</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="27"/>
@@ -1780,7 +1779,7 @@
       <c r="N19" s="26"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="8"/>
       <c r="D20" s="7"/>
@@ -1796,7 +1795,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>10</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>36</v>
       </c>
@@ -1866,7 +1865,7 @@
       </c>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="27"/>
@@ -1882,7 +1881,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="7"/>
@@ -1898,7 +1897,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="9">
@@ -1926,23 +1925,7 @@
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" s="30" t="s">
         <v>4</v>
       </c>
@@ -1979,11 +1962,11 @@
       <c r="N27" s="30">
         <v>19</v>
       </c>
-      <c r="R27">
+      <c r="O27" s="30">
         <v>27</v>
       </c>
-      <c r="S27">
-        <v>25</v>
+      <c r="P27" s="30">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tarea01 - algoritomo A/metodos A.xlsx
+++ b/tarea01 - algoritomo A/metodos A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saids\Desktop\InteligenciaArtificalClass-Repo\tarea01 - algoritomo A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A7C27-C032-4A6B-8918-76787D65B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36076AF2-A701-49AF-9490-5C0EA8B41F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E48C7606-B267-4B67-A036-034A0E98C5EC}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
   <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:S27"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,21 +1263,21 @@
       </c>
       <c r="E2" s="25">
         <f>D5+E5</f>
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F2" s="24">
         <v>3</v>
       </c>
       <c r="G2" s="25">
         <f>F5+G5</f>
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H2" s="24">
         <v>4</v>
       </c>
       <c r="I2" s="25">
         <f>H5+I5</f>
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J2" s="24">
         <v>5</v>
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="26"/>
       <c r="E3" s="8"/>
@@ -1341,19 +1341,19 @@
         <v>110</v>
       </c>
       <c r="D5" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E5" s="10">
         <v>100</v>
       </c>
       <c r="F5" s="9">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G5" s="10">
         <v>90</v>
       </c>
       <c r="H5" s="9">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I5" s="10">
         <v>80</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="K6" s="25">
         <f>J9+K9</f>
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L6" s="24">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K9" s="10">
         <v>60</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K10" s="23">
         <f>J13+K13</f>
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L10" s="1">
         <v>20</v>
@@ -1534,10 +1534,6 @@
       <c r="O10" s="25">
         <f>N13+O13</f>
         <v>162</v>
-      </c>
-      <c r="Q10">
-        <f>118+14</f>
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -1592,7 +1588,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K13" s="10">
         <v>50</v>
@@ -1644,7 +1640,7 @@
       </c>
       <c r="M14" s="25">
         <f>L17+M17</f>
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N14" s="24">
         <v>28</v>
@@ -1712,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="9">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M17" s="10">
         <v>30</v>
@@ -1760,7 +1756,7 @@
       </c>
       <c r="O18" s="25">
         <f>N21+O21</f>
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -1817,7 +1813,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
       <c r="N21" s="9">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O21" s="10">
         <v>10</v>

--- a/tarea01 - algoritomo A/metodos A.xlsx
+++ b/tarea01 - algoritomo A/metodos A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saids\Desktop\InteligenciaArtificalClass-Repo\tarea01 - algoritomo A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36076AF2-A701-49AF-9490-5C0EA8B41F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0D3E8-6454-4B78-A826-837840152992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E48C7606-B267-4B67-A036-034A0E98C5EC}"/>
   </bookViews>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B60A026-C6D3-4829-9E1E-5AEC7B07DCED}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1940,9 +1940,7 @@
       <c r="H27" s="30">
         <v>8</v>
       </c>
-      <c r="I27" s="30">
-        <v>1</v>
-      </c>
+      <c r="I27" s="30"/>
       <c r="J27" s="30">
         <v>2</v>
       </c>

--- a/tarea01 - algoritomo A/metodos A.xlsx
+++ b/tarea01 - algoritomo A/metodos A.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saids\Desktop\InteligenciaArtificalClass-Repo\tarea01 - algoritomo A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0D3E8-6454-4B78-A826-837840152992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F563545-4945-4443-A6A3-45E3E8EAC3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E48C7606-B267-4B67-A036-034A0E98C5EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E48C7606-B267-4B67-A036-034A0E98C5EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
-    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Medo A NoContestado" sheetId="4" r:id="rId1"/>
+    <sheet name="Metodo A" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +152,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -222,11 +235,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -262,6 +410,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,7 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B60A026-C6D3-4829-9E1E-5AEC7B07DCED}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
@@ -1966,4 +2123,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F6311B-A2D1-44FE-BADA-84A47A08D7F3}">
+  <dimension ref="B1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="2:4" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="2:4" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="38"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>